--- a/PythonResources/Data/Consumption/Sympheny/post_1690_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1690_hea.xlsx
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2.681567765937057</v>
+        <v>2.681567765937056</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -623,7 +623,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>7.744871110287908</v>
+        <v>7.744871110287907</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>34.46867099903815</v>
+        <v>34.46867099903814</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2.606456589438541</v>
+        <v>2.60645658943854</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.4393398633468361</v>
+        <v>0.439339863346836</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>2.315876654605817</v>
+        <v>2.315876654605816</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4.954629672504838</v>
+        <v>4.954629672504837</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.5741085804752558</v>
+        <v>0.5741085804752557</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>5.087478774330026</v>
+        <v>5.087478774330025</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>8.628685441578927</v>
+        <v>8.628685441578925</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>15.54478096163642</v>
+        <v>15.54478096163641</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>50.08847814657187</v>
+        <v>50.08847814657186</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>34.85083563345254</v>
+        <v>34.85083563345253</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>37.6912801401583</v>
+        <v>37.69128014015829</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>13.18722960533296</v>
+        <v>13.18722960533295</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>4.487533051086386</v>
+        <v>4.487533051086385</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>32.74629250482542</v>
+        <v>32.74629250482541</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>2.722861475284441</v>
+        <v>2.72286147528444</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>14.55241311762524</v>
+        <v>14.55241311762523</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>9.817938409362799</v>
+        <v>9.817938409362798</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>56.71188362031827</v>
+        <v>56.71188362031826</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>57.97560593902599</v>
+        <v>57.97560593902598</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>53.80813576926166</v>
+        <v>53.80813576926165</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>59.87910233513143</v>
+        <v>59.87910233513142</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>58.93863737206717</v>
+        <v>58.93863737206716</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>55.26792261283382</v>
+        <v>55.26792261283381</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>6.66165124429171</v>
+        <v>6.661651244291709</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>0.9393219860134778</v>
+        <v>0.9393219860134776</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>32.95026994773372</v>
+        <v>32.95026994773371</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>36.86071681659205</v>
+        <v>36.86071681659204</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>10.87821081303182</v>
+        <v>10.87821081303181</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>37.93101224978328</v>
+        <v>37.93101224978327</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>2.753639795764655</v>
+        <v>2.753639795764654</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>27.62634145941172</v>
+        <v>27.62634145941171</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>0.2140948413049633</v>
+        <v>0.2140948413049632</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>0.3203207838360772</v>
+        <v>0.3203207838360771</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>24.63947866179075</v>
+        <v>24.63947866179074</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>4.525134065346636</v>
+        <v>4.525134065346635</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>3.360411143498718</v>
+        <v>3.360411143498717</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>3.504924472662627</v>
+        <v>3.504924472662626</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>7.688630777968796</v>
+        <v>7.688630777968795</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>57.57820161060121</v>
+        <v>57.5782016106012</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>63.17322080968495</v>
+        <v>63.17322080968494</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>31.79674233956266</v>
+        <v>31.79674233956265</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>25.63521682274654</v>
+        <v>25.63521682274653</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>79.99168850534357</v>
+        <v>79.99168850534356</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>93.5734796500263</v>
+        <v>93.57347965002629</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>94.22263200066118</v>
+        <v>94.22263200066116</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>97.09384896642638</v>
+        <v>97.09384896642636</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>96.454661031106</v>
+        <v>96.45466103110596</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>36.51196228058505</v>
+        <v>36.51196228058504</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>53.52737371422409</v>
+        <v>53.52737371422408</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>57.07148178475574</v>
+        <v>57.07148178475573</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>62.96426115911941</v>
+        <v>62.9642611591194</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>83.25767216018561</v>
+        <v>83.25767216018559</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>84.43464545144957</v>
+        <v>84.43464545144955</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>84.1849489265101</v>
+        <v>84.18494892651009</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>82.33772216982764</v>
+        <v>82.33772216982763</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>81.11502979653251</v>
+        <v>81.1150297965325</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>79.48233104015016</v>
+        <v>79.48233104015014</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>62.55630627330282</v>
+        <v>62.55630627330281</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>63.16267025229314</v>
+        <v>63.16267025229313</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>64.17845447229337</v>
+        <v>64.17845447229335</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>69.63485107009029</v>
+        <v>69.63485107009028</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>61.25975999826503</v>
+        <v>61.25975999826502</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>95.187714930973</v>
+        <v>95.18771493097296</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>74.24925457381318</v>
+        <v>74.24925457381316</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>56.25381358689059</v>
+        <v>56.25381358689058</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>9.83599158534434</v>
+        <v>9.835991585344338</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>15.56890070811825</v>
+        <v>15.56890070811824</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>44.004616455001</v>
+        <v>44.00461645500099</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>72.08873487680174</v>
+        <v>72.08873487680172</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>23.61340764833352</v>
+        <v>23.61340764833351</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>86.55208370577779</v>
+        <v>86.55208370577778</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>79.11013082105025</v>
+        <v>79.11013082105023</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>82.50389344874863</v>
+        <v>82.50389344874861</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>16.47399199681608</v>
+        <v>16.47399199681607</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>9.771105657384718</v>
+        <v>9.771105657384716</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>54.58008488509565</v>
+        <v>54.58008488509564</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>68.72603777920146</v>
+        <v>68.72603777920145</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>67.6226253186415</v>
+        <v>67.62262531864148</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>25.68351492991793</v>
+        <v>25.68351492991792</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>59.86650028046899</v>
+        <v>59.86650028046898</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>62.9923959788309</v>
+        <v>62.99239597883089</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>78.24850196738589</v>
+        <v>78.24850196738588</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>86.82903583731276</v>
+        <v>86.82903583731274</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>9.67518350643086</v>
+        <v>9.675183506430855</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>9.318428131068403</v>
+        <v>9.3184281310684</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>51.34194297892644</v>
+        <v>51.34194297892643</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>18.99463738613458</v>
+        <v>18.99463738613457</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>52.16957559210608</v>
+        <v>52.16957559210607</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>68.62346291566999</v>
+        <v>68.62346291566998</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>73.12063800392833</v>
+        <v>73.12063800392832</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>81.02828076908875</v>
+        <v>81.02828076908874</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>46.39402463320695</v>
+        <v>46.39402463320694</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>49.95835460540623</v>
+        <v>49.95835460540622</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>37.76278947359167</v>
+        <v>37.76278947359166</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>38.22115257805801</v>
+        <v>38.221152578058</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>117.1287713113933</v>
+        <v>117.1287713113932</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>130.0042612529022</v>
+        <v>130.0042612529021</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>88.25834329286414</v>
+        <v>88.25834329286413</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>34.46075808099429</v>
+        <v>34.46075808099428</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>31.87704380415587</v>
+        <v>31.87704380415586</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>30.71384485170899</v>
+        <v>30.71384485170898</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>23.32608080202993</v>
+        <v>23.32608080202992</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>77.10523184556799</v>
+        <v>77.10523184556797</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>74.4294932625899</v>
+        <v>74.42949326258989</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>91.27463042276671</v>
+        <v>91.27463042276668</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>92.00848030357471</v>
+        <v>92.0084803035747</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>57.16291994881808</v>
+        <v>57.16291994881807</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>60.17686251041136</v>
+        <v>60.17686251041135</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>60.2993662045718</v>
+        <v>60.29936620457179</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>62.48509001090811</v>
+        <v>62.4850900109081</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>54.82714377068716</v>
+        <v>54.82714377068715</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>76.45490721077846</v>
+        <v>76.45490721077844</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>43.16115800573365</v>
+        <v>43.16115800573364</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>973</v>
       </c>
       <c r="B973">
-        <v>3.000138915672326</v>
+        <v>3.000138915672325</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>977</v>
       </c>
       <c r="B977">
-        <v>3.612510850955207</v>
+        <v>3.612510850955206</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>39.84154235081659</v>
+        <v>39.84154235081658</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>24.64759672956167</v>
+        <v>24.64759672956166</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>22.1732272572478</v>
+        <v>22.17322725724779</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>31.87440616480792</v>
+        <v>31.87440616480791</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>5.223287893645693</v>
+        <v>5.223287893645692</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>68.03263170172872</v>
+        <v>68.0326317017287</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>56.34788939030088</v>
+        <v>56.34788939030087</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>60.30200384391975</v>
+        <v>60.30200384391974</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>82.96753183191088</v>
+        <v>82.96753183191086</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>1039</v>
       </c>
       <c r="B1039">
-        <v>80.49049541314518</v>
+        <v>80.49049541314517</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>9.899734536253185</v>
+        <v>9.899734536253179</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>45.81843311327607</v>
+        <v>45.81843311327606</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>53.00541419436824</v>
+        <v>53.00541419436823</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>56.35023395861017</v>
+        <v>56.35023395861016</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>52.6918281830006</v>
+        <v>52.69182818300059</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>51.54826499014403</v>
+        <v>51.54826499014402</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>7.610791110100342</v>
+        <v>7.610791110100341</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>51.54826499014403</v>
+        <v>51.54826499014402</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>54.93645926810784</v>
+        <v>54.93645926810783</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>59.41282631262123</v>
+        <v>59.41282631262122</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>70.23623284142337</v>
+        <v>70.23623284142336</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>81.48459237628447</v>
+        <v>81.48459237628445</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>86.59780278780896</v>
+        <v>86.59780278780894</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9871,7 +9871,7 @@
         <v>1191</v>
       </c>
       <c r="B1191">
-        <v>7.616125003003979</v>
+        <v>7.616125003003978</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>51.843387526076</v>
+        <v>51.84338752607599</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>7.336711074744253</v>
+        <v>7.336711074744252</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>8.703008256983445</v>
+        <v>8.703008256983443</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>7.993453965280461</v>
+        <v>7.99345396528046</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>25.10625290506668</v>
+        <v>25.10625290506667</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>0.7163242326960602</v>
+        <v>0.71632423269606</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>2.236747474167254</v>
+        <v>2.236747474167253</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>7.807764155184633</v>
+        <v>7.807764155184632</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>0.8806110648384505</v>
+        <v>0.8806110648384504</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>2.568714901079733</v>
+        <v>2.568714901079732</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>24.24324661752061</v>
+        <v>24.2432466175206</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>10.4277020124016</v>
+        <v>10.42770201240159</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>18.40500776345182</v>
+        <v>18.40500776345181</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>2.988767759372266</v>
+        <v>2.988767759372265</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>1357</v>
       </c>
       <c r="B1357">
-        <v>0.6761295397436567</v>
+        <v>0.6761295397436566</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>0.5174784636747241</v>
+        <v>0.5174784636747239</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>5.069982433321943</v>
+        <v>5.069982433321942</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>22.25455447047632</v>
+        <v>22.25455447047631</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>4.339795940497202</v>
+        <v>4.339795940497201</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>32.00247820870293</v>
+        <v>32.00247820870292</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>1423</v>
       </c>
       <c r="B1423">
-        <v>46.80168644798488</v>
+        <v>46.80168644798487</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>6.704937836701991</v>
+        <v>6.70493783670199</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>60.59448874050377</v>
+        <v>60.59448874050376</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>69.93817959510478</v>
+        <v>69.93817959510477</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>73.5280067476676</v>
+        <v>73.52800674766759</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>75.42564172299981</v>
+        <v>75.4256417229998</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>73.81814707594233</v>
+        <v>73.81814707594232</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>7.376979035456321</v>
+        <v>7.37697903545632</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1514</v>
       </c>
       <c r="B1514">
-        <v>38.6238321851787</v>
+        <v>38.62383218517869</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12495,7 +12495,7 @@
         <v>1519</v>
       </c>
       <c r="B1519">
-        <v>49.17849257152839</v>
+        <v>49.17849257152838</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>0.940473755195417</v>
+        <v>0.9404737551954168</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>53.52268457760551</v>
+        <v>53.5226845776055</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>0.8391473742886434</v>
+        <v>0.8391473742886433</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>0.5656212431956232</v>
+        <v>0.5656212431956231</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>6.215831580280071</v>
+        <v>6.21583158028007</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>9.982556411778878</v>
+        <v>9.982556411778877</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>9.088396672823114</v>
+        <v>9.088396672823112</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>4.99032572501379</v>
+        <v>4.990325725013789</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>5.565770709425341</v>
+        <v>5.56577070942534</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>39.02651179229939</v>
+        <v>39.02651179229938</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>61.89689643631479</v>
+        <v>61.89689643631478</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>9.445738190262892</v>
+        <v>9.44573819026289</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>7.223966646171233</v>
+        <v>7.223966646171232</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>5.090731862859166</v>
+        <v>5.090731862859165</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>17.04460130908972</v>
+        <v>17.04460130908971</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>19.62535556843766</v>
+        <v>19.62535556843765</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13615,7 +13615,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>53.41278293810751</v>
+        <v>53.4127829381075</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>48.79134572945675</v>
+        <v>48.79134572945674</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>4.856245724826224</v>
+        <v>4.856245724826223</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>2.733010525353283</v>
+        <v>2.733010525353282</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>40.87579004625248</v>
+        <v>40.87579004625247</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>4.892498612308633</v>
+        <v>4.892498612308632</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>3.909596962846213</v>
+        <v>3.909596962846212</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>23.07820131753017</v>
+        <v>23.07820131753016</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>3.965163231776404</v>
+        <v>3.965163231776403</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>1.143856263895231</v>
+        <v>1.14385626389523</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>32.94265010072852</v>
+        <v>32.94265010072851</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>3.739117539656908</v>
+        <v>3.739117539656907</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>1.540422409149444</v>
+        <v>1.540422409149443</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>0.5479519902747307</v>
+        <v>0.5479519902747306</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>11.0004214361536</v>
+        <v>11.00042143615359</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>32.77940953219415</v>
+        <v>32.77940953219414</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>3.130174535526365</v>
+        <v>3.130174535526364</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>4.581169247938686</v>
+        <v>4.581169247938685</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>9.772629626785756</v>
+        <v>9.772629626785754</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>21.85750182729793</v>
+        <v>21.85750182729792</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>51.62475653123464</v>
+        <v>51.62475653123463</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>55.73918084300127</v>
+        <v>55.73918084300126</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>35.40591218067713</v>
+        <v>35.40591218067712</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>0.7472373658540589</v>
+        <v>0.7472373658540588</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>0.423411452395592</v>
+        <v>0.4234114523955919</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>0.5846796528397705</v>
+        <v>0.5846796528397704</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>3.373452804719148</v>
+        <v>3.373452804719147</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>9.352863978111111</v>
+        <v>9.35286397811111</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>0.4737258883129718</v>
+        <v>0.4737258883129717</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>0.4947097746811241</v>
+        <v>0.494709774681124</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15687,7 +15687,7 @@
         <v>1918</v>
       </c>
       <c r="B1918">
-        <v>7.578553295847594</v>
+        <v>7.578553295847593</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>44.72820884945586</v>
+        <v>44.72820884945585</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>45.44652596521482</v>
+        <v>45.44652596521481</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15767,7 +15767,7 @@
         <v>1928</v>
       </c>
       <c r="B1928">
-        <v>4.280800740414673</v>
+        <v>4.280800740414672</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>1.824754069437908</v>
+        <v>1.824754069437907</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>2.485784589269732</v>
+        <v>2.485784589269731</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -15983,7 +15983,7 @@
         <v>1955</v>
       </c>
       <c r="B1955">
-        <v>6.605322990660999</v>
+        <v>6.605322990660998</v>
       </c>
     </row>
     <row r="1956" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>48.24652666858531</v>
+        <v>48.2465266685853</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>48.99766774067434</v>
+        <v>48.99766774067433</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>4.249061146927649</v>
+        <v>4.249061146927648</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>5.800520611393079</v>
+        <v>5.800520611393078</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16343,7 +16343,7 @@
         <v>2000</v>
       </c>
       <c r="B2000">
-        <v>2.855736953503108</v>
+        <v>2.855736953503107</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>2.799687117359126</v>
+        <v>2.799687117359125</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>2.710546630239891</v>
+        <v>2.71054663023989</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>7.49450052195952</v>
+        <v>7.494500521959519</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>40.3714147887163</v>
+        <v>40.37141478871629</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>40.0097651270082</v>
+        <v>40.00976512700819</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>4.02486180235172</v>
+        <v>4.024861802351719</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>6.250824262296236</v>
+        <v>6.250824262296235</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>40.74332193677755</v>
+        <v>40.74332193677754</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16743,7 +16743,7 @@
         <v>2050</v>
       </c>
       <c r="B2050">
-        <v>6.642044791805265</v>
+        <v>6.642044791805264</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -16855,7 +16855,7 @@
         <v>2064</v>
       </c>
       <c r="B2064">
-        <v>40.17535026385186</v>
+        <v>40.17535026385185</v>
       </c>
     </row>
     <row r="2065" spans="1:2">
@@ -16927,7 +16927,7 @@
         <v>2073</v>
       </c>
       <c r="B2073">
-        <v>6.766717211651802</v>
+        <v>6.766717211651801</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -17007,7 +17007,7 @@
         <v>2083</v>
       </c>
       <c r="B2083">
-        <v>21.96995318483229</v>
+        <v>21.96995318483228</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17199,7 +17199,7 @@
         <v>2107</v>
       </c>
       <c r="B2107">
-        <v>0.6295019374926366</v>
+        <v>0.6295019374926365</v>
       </c>
     </row>
     <row r="2108" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>18.2190541894212</v>
+        <v>18.21905418942119</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>0.6016396738471026</v>
+        <v>0.6016396738471025</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>0.8843653048437023</v>
+        <v>0.8843653048437022</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>26.77353404401107</v>
+        <v>26.77353404401106</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17535,7 +17535,7 @@
         <v>2149</v>
       </c>
       <c r="B2149">
-        <v>1.788861659333053</v>
+        <v>1.788861659333052</v>
       </c>
     </row>
     <row r="2150" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>0.6068270312314084</v>
+        <v>0.6068270312314082</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17735,7 +17735,7 @@
         <v>2174</v>
       </c>
       <c r="B2174">
-        <v>0.3639971607277775</v>
+        <v>0.3639971607277774</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>10.33808088877896</v>
+        <v>10.33808088877895</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>24.8185743735167</v>
+        <v>24.81857437351669</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>0.7457133964530199</v>
+        <v>0.7457133964530198</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18183,7 +18183,7 @@
         <v>2230</v>
       </c>
       <c r="B2230">
-        <v>0.0992537825213605</v>
+        <v>0.0992537825213604</v>
       </c>
     </row>
     <row r="2231" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>0.5287499758216394</v>
+        <v>0.5287499758216393</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>1.905612369004573</v>
+        <v>1.905612369004572</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>0.4646348246936969</v>
+        <v>0.4646348246936968</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>2.0127943092638</v>
+        <v>2.012794309263799</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>8.782840807914795</v>
+        <v>8.782840807914793</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>0.8441706118912988</v>
+        <v>0.8441706118912987</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18671,7 +18671,7 @@
         <v>2291</v>
       </c>
       <c r="B2291">
-        <v>0.7544058834597154</v>
+        <v>0.7544058834597153</v>
       </c>
     </row>
     <row r="2292" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>0.8370196785479621</v>
+        <v>0.837019678547962</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>0.4323413269436032</v>
+        <v>0.4323413269436031</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19183,7 +19183,7 @@
         <v>2355</v>
       </c>
       <c r="B2355">
-        <v>20.29933103604716</v>
+        <v>20.29933103604715</v>
       </c>
     </row>
     <row r="2356" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>41.416213041544</v>
+        <v>41.41621304154399</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>29.99054552829279</v>
+        <v>29.99054552829278</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>35.24062011487213</v>
+        <v>35.24062011487212</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>0.3618958413805756</v>
+        <v>0.3618958413805755</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>7.619348784429254</v>
+        <v>7.619348784429253</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19935,7 +19935,7 @@
         <v>2449</v>
       </c>
       <c r="B2449">
-        <v>0.6683807414814508</v>
+        <v>0.6683807414814507</v>
       </c>
     </row>
     <row r="2450" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>1.456287575370545</v>
+        <v>1.456287575370544</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>2.578198679890814</v>
+        <v>2.578198679890813</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>25.98827950302186</v>
+        <v>25.98827950302185</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>6.256158155199873</v>
+        <v>6.256158155199872</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>6.993671423991148</v>
+        <v>6.993671423991147</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>0.7165645509477625</v>
+        <v>0.7165645509477624</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>0.638976924172558</v>
+        <v>0.6389769241725579</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>0.6763288280499464</v>
+        <v>0.6763288280499463</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20823,7 +20823,7 @@
         <v>2560</v>
       </c>
       <c r="B2560">
-        <v>0.8233508453047969</v>
+        <v>0.8233508453047967</v>
       </c>
     </row>
     <row r="2561" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>0.8644921577120765</v>
+        <v>0.8644921577120764</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20847,7 +20847,7 @@
         <v>2563</v>
       </c>
       <c r="B2563">
-        <v>6.824481513371953</v>
+        <v>6.824481513371952</v>
       </c>
     </row>
     <row r="2564" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>6.377196494167008</v>
+        <v>6.377196494167007</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>1.704899737466964</v>
+        <v>1.704899737466963</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>7.398959363355922</v>
+        <v>7.398959363355921</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>1.196550436646541</v>
+        <v>1.19655043664654</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>0.8755555894215423</v>
+        <v>0.8755555894215422</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>7.43779127597855</v>
+        <v>7.437791275978549</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>24.73425783569383</v>
+        <v>24.73425783569382</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21711,7 +21711,7 @@
         <v>2671</v>
       </c>
       <c r="B2671">
-        <v>0.8933743085721522</v>
+        <v>0.8933743085721521</v>
       </c>
     </row>
     <row r="2672" spans="1:2">
@@ -21847,7 +21847,7 @@
         <v>2688</v>
       </c>
       <c r="B2688">
-        <v>4.946746061564848</v>
+        <v>4.946746061564847</v>
       </c>
     </row>
     <row r="2689" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>30.76366692828142</v>
+        <v>30.76366692828141</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>2.535234465623061</v>
+        <v>2.53523446562306</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>0.9487354277752802</v>
+        <v>0.94873542777528</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>0.640682597617567</v>
+        <v>0.6406825976175669</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>7.594232596415976</v>
+        <v>7.594232596415975</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>10.24558766897744</v>
+        <v>10.24558766897743</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>0.7949991530246984</v>
+        <v>0.7949991530246983</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>5.031531513049575</v>
+        <v>5.031531513049574</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>1.23901643014857</v>
+        <v>1.239016430148569</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>7.776757239294263</v>
+        <v>7.776757239294262</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>0.4795521405615593</v>
+        <v>0.4795521405615592</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>6.000570902383313</v>
+        <v>6.000570902383312</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>4.233118082424472</v>
+        <v>4.233118082424471</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24167,7 +24167,7 @@
         <v>2978</v>
       </c>
       <c r="B2978">
-        <v>9.44052152577472</v>
+        <v>9.440521525774718</v>
       </c>
     </row>
     <row r="2979" spans="1:2">
@@ -24383,7 +24383,7 @@
         <v>3005</v>
       </c>
       <c r="B3005">
-        <v>7.072654068910381</v>
+        <v>7.07265406891038</v>
       </c>
     </row>
     <row r="3006" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>0.07856150183667621</v>
+        <v>0.0785615018366761</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>0.487462127895029</v>
+        <v>0.4874621278950289</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>4.134441063707197</v>
+        <v>4.134441063707196</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>0.2022163790369803</v>
+        <v>0.2022163790369802</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>2.513306890510419</v>
+        <v>2.513306890510418</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>6.52783500803894</v>
+        <v>6.527835008038939</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26839,7 +26839,7 @@
         <v>3312</v>
       </c>
       <c r="B3312">
-        <v>8.357301659778521</v>
+        <v>8.357301659778519</v>
       </c>
     </row>
     <row r="3313" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>0.7599361339592551</v>
+        <v>0.759936133959255</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -26911,7 +26911,7 @@
         <v>3321</v>
       </c>
       <c r="B3321">
-        <v>0.3796852534273193</v>
+        <v>0.3796852534273192</v>
       </c>
     </row>
     <row r="3322" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>0.3780147485069496</v>
+        <v>0.3780147485069495</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27079,7 +27079,7 @@
         <v>3342</v>
       </c>
       <c r="B3342">
-        <v>9.75645210545165</v>
+        <v>9.756452105451649</v>
       </c>
     </row>
     <row r="3343" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>2.367366305388229</v>
+        <v>2.367366305388228</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>7.927219910542997</v>
+        <v>7.927219910542996</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>0.07028839948630509</v>
+        <v>0.070288399486305</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>0.3163877704972419</v>
+        <v>0.3163877704972418</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>2.499805107759291</v>
+        <v>2.49980510775929</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>0.2097019995064684</v>
+        <v>0.2097019995064683</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>1.526782883010145</v>
+        <v>1.526782883010144</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>4.182446099839925</v>
+        <v>4.182446099839924</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>0.3430836114089039</v>
+        <v>0.3430836114089038</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>0.638537317614566</v>
+        <v>0.6385373176145659</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52431,7 +52431,7 @@
         <v>6511</v>
       </c>
       <c r="B6511">
-        <v>0.093737306360638</v>
+        <v>0.0937373063606379</v>
       </c>
     </row>
     <row r="6512" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>4.195253304229426</v>
+        <v>4.195253304229425</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>4.719674620810038</v>
+        <v>4.719674620810037</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>5.855530045349814</v>
+        <v>5.855530045349813</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>0.6449350583885431</v>
+        <v>0.644935058388543</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>0.8253495897884673</v>
+        <v>0.8253495897884672</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>1.55715383474662</v>
+        <v>1.557153834746619</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>0.3468495742557022</v>
+        <v>0.3468495742557021</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54255,7 +54255,7 @@
         <v>6739</v>
       </c>
       <c r="B6739">
-        <v>0.8062472194885208</v>
+        <v>0.8062472194885207</v>
       </c>
     </row>
     <row r="6740" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>0.3564007594056754</v>
+        <v>0.3564007594056753</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>23.24572072322899</v>
+        <v>23.24572072322898</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -55279,7 +55279,7 @@
         <v>6867</v>
       </c>
       <c r="B6867">
-        <v>0.1359480349879929</v>
+        <v>0.1359480349879928</v>
       </c>
     </row>
     <row r="6868" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>0.3781436997639606</v>
+        <v>0.3781436997639605</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>0.5533474280964861</v>
+        <v>0.553347428096486</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>4.792004553151657</v>
+        <v>4.792004553151656</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>0.6250531191257575</v>
+        <v>0.6250531191257573</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>5.691674027634255</v>
+        <v>5.691674027634254</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -55887,7 +55887,7 @@
         <v>6943</v>
       </c>
       <c r="B6943">
-        <v>0.7705511669795689</v>
+        <v>0.7705511669795688</v>
       </c>
     </row>
     <row r="6944" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>8.054207591594958</v>
+        <v>8.054207591594956</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>0.4358259415932866</v>
+        <v>0.4358259415932865</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>1.671929245617563</v>
+        <v>1.671929245617562</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56239,7 +56239,7 @@
         <v>6987</v>
       </c>
       <c r="B6987">
-        <v>21.84572037154374</v>
+        <v>21.84572037154373</v>
       </c>
     </row>
     <row r="6988" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>0.3063354338711578</v>
+        <v>0.3063354338711577</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56391,7 +56391,7 @@
         <v>7006</v>
       </c>
       <c r="B7006">
-        <v>0.366889771879365</v>
+        <v>0.3668897718793649</v>
       </c>
     </row>
     <row r="7007" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>0.8505361148510233</v>
+        <v>0.8505361148510232</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56479,7 +56479,7 @@
         <v>7017</v>
       </c>
       <c r="B7017">
-        <v>0.802144224947262</v>
+        <v>0.8021442249472619</v>
       </c>
     </row>
     <row r="7018" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>5.821006276995506</v>
+        <v>5.821006276995505</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>7.205884163085828</v>
+        <v>7.205884163085827</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>0.2127915543960363</v>
+        <v>0.2127915543960362</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>0.2335459661409168</v>
+        <v>0.2335459661409167</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>0.1841242246072995</v>
+        <v>0.1841242246072994</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>2.396902004664519</v>
+        <v>2.396902004664518</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57751,7 +57751,7 @@
         <v>7176</v>
       </c>
       <c r="B7176">
-        <v>9.51255838707768</v>
+        <v>9.512558387077677</v>
       </c>
     </row>
     <row r="7177" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>0.3178179571659093</v>
+        <v>0.3178179571659092</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>26.2649971777259</v>
+        <v>26.26499717772589</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>34.33356525021527</v>
+        <v>34.33356525021526</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>0.726561204076501</v>
+        <v>0.7265612040765009</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58087,7 +58087,7 @@
         <v>7218</v>
       </c>
       <c r="B7218">
-        <v>3.907457544263985</v>
+        <v>3.907457544263984</v>
       </c>
     </row>
     <row r="7219" spans="1:2">
@@ -58143,7 +58143,7 @@
         <v>7225</v>
       </c>
       <c r="B7225">
-        <v>31.12033438233228</v>
+        <v>31.12033438233227</v>
       </c>
     </row>
     <row r="7226" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>0.1983375838402974</v>
+        <v>0.1983375838402973</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>0.915378082154846</v>
+        <v>0.9153780821548458</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>2.249953255169334</v>
+        <v>2.249953255169333</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>1.411963511483403</v>
+        <v>1.411963511483402</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>3.940955563982977</v>
+        <v>3.940955563982976</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>8.212553873783683</v>
+        <v>8.212553873783682</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>19.21048420610866</v>
+        <v>19.21048420610865</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>2.345066530056487</v>
+        <v>2.345066530056486</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>0.5450974783581692</v>
+        <v>0.5450974783581691</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>0.5860014032241332</v>
+        <v>0.5860014032241331</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>0.6355362701786738</v>
+        <v>0.6355362701786736</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>3.52423785411041</v>
+        <v>3.524237854110409</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>7.283518681227219</v>
+        <v>7.283518681227218</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>17.98823143937152</v>
+        <v>17.98823143937151</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>0.7656627420546978</v>
+        <v>0.7656627420546976</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>0.3407126667061336</v>
+        <v>0.3407126667061335</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>0.7696719538635849</v>
+        <v>0.7696719538635848</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59863,7 +59863,7 @@
         <v>7440</v>
       </c>
       <c r="B7440">
-        <v>24.77534639531415</v>
+        <v>24.77534639531414</v>
       </c>
     </row>
     <row r="7441" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>39.46201535575015</v>
+        <v>39.46201535575014</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>36.33348201804029</v>
+        <v>36.33348201804028</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -60095,7 +60095,7 @@
         <v>7469</v>
       </c>
       <c r="B7469">
-        <v>21.7271145221975</v>
+        <v>21.72711452219749</v>
       </c>
     </row>
     <row r="7470" spans="1:2">
@@ -60439,7 +60439,7 @@
         <v>7512</v>
       </c>
       <c r="B7512">
-        <v>0.7335626711901205</v>
+        <v>0.7335626711901204</v>
       </c>
     </row>
     <row r="7513" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>5.587076973936021</v>
+        <v>5.58707697393602</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -60919,7 +60919,7 @@
         <v>7572</v>
       </c>
       <c r="B7572">
-        <v>0.5062069515278087</v>
+        <v>0.5062069515278086</v>
       </c>
     </row>
     <row r="7573" spans="1:2">
@@ -61023,7 +61023,7 @@
         <v>7585</v>
       </c>
       <c r="B7585">
-        <v>25.89558113349328</v>
+        <v>25.89558113349327</v>
       </c>
     </row>
     <row r="7586" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>28.06046758898077</v>
+        <v>28.06046758898076</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61047,7 +61047,7 @@
         <v>7588</v>
       </c>
       <c r="B7588">
-        <v>34.8200631743931</v>
+        <v>34.82006317439309</v>
       </c>
     </row>
     <row r="7589" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>8.096058135915799</v>
+        <v>8.096058135915797</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>7.791029798877069</v>
+        <v>7.791029798877068</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>22.03202563082076</v>
+        <v>22.03202563082075</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>4.749333409922565</v>
+        <v>4.749333409922564</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>3.284241980550634</v>
+        <v>3.284241980550633</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61343,7 +61343,7 @@
         <v>7625</v>
       </c>
       <c r="B7625">
-        <v>2.378746253819449</v>
+        <v>2.378746253819448</v>
       </c>
     </row>
     <row r="7626" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>46.55492063343203</v>
+        <v>46.55492063343202</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61543,7 +61543,7 @@
         <v>7650</v>
       </c>
       <c r="B7650">
-        <v>3.715701163667867</v>
+        <v>3.715701163667866</v>
       </c>
     </row>
     <row r="7651" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>50.81939731699326</v>
+        <v>50.81939731699325</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>56.16706455944683</v>
+        <v>56.16706455944682</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>6.242002824032529</v>
+        <v>6.242002824032528</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>3.719130094820205</v>
+        <v>3.719130094820204</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>19.80618039929171</v>
+        <v>19.8061803992917</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61799,7 +61799,7 @@
         <v>7682</v>
       </c>
       <c r="B7682">
-        <v>31.82487715927415</v>
+        <v>31.82487715927414</v>
       </c>
     </row>
     <row r="7683" spans="1:2">
@@ -61839,7 +61839,7 @@
         <v>7687</v>
       </c>
       <c r="B7687">
-        <v>41.73683275783951</v>
+        <v>41.7368327578395</v>
       </c>
     </row>
     <row r="7688" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>0.628657892901292</v>
+        <v>0.6286578929012919</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>41.57124762099585</v>
+        <v>41.57124762099584</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>44.22852272853827</v>
+        <v>44.22852272853826</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62119,7 +62119,7 @@
         <v>7722</v>
       </c>
       <c r="B7722">
-        <v>8.022233541277005</v>
+        <v>8.022233541277004</v>
       </c>
     </row>
     <row r="7723" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>41.76994978520824</v>
+        <v>41.76994978520823</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>30.15847523344574</v>
+        <v>30.15847523344573</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>61.0021505552817</v>
+        <v>61.00215055528169</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>12.71368542106396</v>
+        <v>12.71368542106395</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62495,7 +62495,7 @@
         <v>7769</v>
       </c>
       <c r="B7769">
-        <v>19.3058202149852</v>
+        <v>19.30582021498519</v>
       </c>
     </row>
     <row r="7770" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>77.13043595489286</v>
+        <v>77.13043595489285</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62711,7 +62711,7 @@
         <v>7796</v>
       </c>
       <c r="B7796">
-        <v>80.30761908502051</v>
+        <v>80.30761908502049</v>
       </c>
     </row>
     <row r="7797" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>66.55027838817963</v>
+        <v>66.55027838817962</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62735,7 +62735,7 @@
         <v>7799</v>
       </c>
       <c r="B7799">
-        <v>67.92800534092662</v>
+        <v>67.9280053409266</v>
       </c>
     </row>
     <row r="7800" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>80.11360605742669</v>
+        <v>80.11360605742668</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>85.02283902604289</v>
+        <v>85.02283902604287</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62911,7 +62911,7 @@
         <v>7821</v>
       </c>
       <c r="B7821">
-        <v>59.65988519821274</v>
+        <v>59.65988519821273</v>
       </c>
     </row>
     <row r="7822" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>16.59752143961184</v>
+        <v>16.59752143961183</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>63.53516354243171</v>
+        <v>63.5351635424317</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>65.43690151230518</v>
+        <v>65.43690151230517</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63151,7 +63151,7 @@
         <v>7851</v>
       </c>
       <c r="B7851">
-        <v>84.83410127714498</v>
+        <v>84.83410127714497</v>
       </c>
     </row>
     <row r="7852" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>79.91285239594367</v>
+        <v>79.91285239594366</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>86.46269703898608</v>
+        <v>86.46269703898606</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>61.53260913525874</v>
+        <v>61.53260913525873</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>65.46738090032596</v>
+        <v>65.46738090032595</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>69.53081085136552</v>
+        <v>69.5308108513655</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>7.94796934008022</v>
+        <v>7.947969340080219</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>19.43946060861477</v>
+        <v>19.43946060861476</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>32.98338697510245</v>
+        <v>32.98338697510244</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63527,7 +63527,7 @@
         <v>7898</v>
       </c>
       <c r="B7898">
-        <v>38.98049963922956</v>
+        <v>38.98049963922955</v>
       </c>
     </row>
     <row r="7899" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>37.5130929486522</v>
+        <v>37.51309294865219</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -63567,7 +63567,7 @@
         <v>7903</v>
       </c>
       <c r="B7903">
-        <v>30.52657245800439</v>
+        <v>30.52657245800438</v>
       </c>
     </row>
     <row r="7904" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>3.788324167048148</v>
+        <v>3.788324167048147</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>4.858531678927783</v>
+        <v>4.858531678927782</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>2.107136807319274</v>
+        <v>2.107136807319273</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64031,7 +64031,7 @@
         <v>7961</v>
       </c>
       <c r="B7961">
-        <v>1.489395810608117</v>
+        <v>1.489395810608116</v>
       </c>
     </row>
     <row r="7962" spans="1:2">
@@ -64039,7 +64039,7 @@
         <v>7962</v>
       </c>
       <c r="B7962">
-        <v>2.026504172452378</v>
+        <v>2.026504172452377</v>
       </c>
     </row>
     <row r="7963" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>23.55971703405076</v>
+        <v>23.55971703405075</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>40.85029286588894</v>
+        <v>40.85029286588893</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>7.384891953500177</v>
+        <v>7.384891953500176</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>3.961411922481537</v>
+        <v>3.961411922481538</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>49.77987434286147</v>
+        <v>49.77987434286146</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64295,7 +64295,7 @@
         <v>7994</v>
       </c>
       <c r="B7994">
-        <v>47.23484544312635</v>
+        <v>47.23484544312634</v>
       </c>
     </row>
     <row r="7995" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>5.516769231761164</v>
+        <v>5.516769231761163</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>6.453453578426689</v>
+        <v>6.453453578426688</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64391,7 +64391,7 @@
         <v>8006</v>
       </c>
       <c r="B8006">
-        <v>6.73025917444233</v>
+        <v>6.730259174442329</v>
       </c>
     </row>
     <row r="8007" spans="1:2">
@@ -64415,7 +64415,7 @@
         <v>8009</v>
       </c>
       <c r="B8009">
-        <v>8.715170705087891</v>
+        <v>8.715170705087889</v>
       </c>
     </row>
     <row r="8010" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>0.5237150153774375</v>
+        <v>0.5237150153774374</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>0.6705611900090912</v>
+        <v>0.6705611900090911</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64687,7 +64687,7 @@
         <v>8043</v>
       </c>
       <c r="B8043">
-        <v>37.66578295979476</v>
+        <v>37.66578295979475</v>
       </c>
     </row>
     <row r="8044" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>2.637070790137105</v>
+        <v>2.637070790137104</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>6.762057382137086</v>
+        <v>6.762057382137085</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>20.16360983804309</v>
+        <v>20.16360983804308</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>0.9044963544893502</v>
+        <v>0.90449635448935</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -65055,7 +65055,7 @@
         <v>8089</v>
       </c>
       <c r="B8089">
-        <v>1.269829919153424</v>
+        <v>1.269829919153423</v>
       </c>
     </row>
     <row r="8090" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>4.734914314820427</v>
+        <v>4.734914314820426</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>0.7368274825608079</v>
+        <v>0.7368274825608078</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>0.3375797373028438</v>
+        <v>0.3375797373028437</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>0.548321259783444</v>
+        <v>0.5483212597834439</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>0.943325336401592</v>
+        <v>0.9433253364015918</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>1.384822202592976</v>
+        <v>1.384822202592975</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>0.8830992379566854</v>
+        <v>0.8830992379566853</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>1.116723747135964</v>
+        <v>1.116723747135963</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>0.8208069886892164</v>
+        <v>0.8208069886892163</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>50.48588247499665</v>
+        <v>50.48588247499664</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>51.17840933935341</v>
+        <v>51.1784093393534</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>3.175278168376346</v>
+        <v>3.175278168376345</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>53.19620344053677</v>
+        <v>53.19620344053676</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>4.851292824272847</v>
+        <v>4.851292824272846</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66735,7 +66735,7 @@
         <v>8299</v>
       </c>
       <c r="B8299">
-        <v>56.0088061985697</v>
+        <v>56.00880619856969</v>
       </c>
     </row>
     <row r="8300" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>29.85924970297251</v>
+        <v>29.8592497029725</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>32.20118037291532</v>
+        <v>32.20118037291531</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>42.1395123649602</v>
+        <v>42.13951236496019</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>44.30266970131959</v>
+        <v>44.30266970131958</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>6.78925437452486</v>
+        <v>6.789254374524859</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66919,7 +66919,7 @@
         <v>8322</v>
       </c>
       <c r="B8322">
-        <v>23.60086420787881</v>
+        <v>23.6008642078788</v>
       </c>
     </row>
     <row r="8323" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>55.08446014263182</v>
+        <v>55.08446014263181</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>37.04417928679405</v>
+        <v>37.04417928679404</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -67047,7 +67047,7 @@
         <v>8338</v>
       </c>
       <c r="B8338">
-        <v>7.389082869353034</v>
+        <v>7.389082869353033</v>
       </c>
     </row>
     <row r="8339" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>4.388240583187922</v>
+        <v>4.388240583187921</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>42.74060106525462</v>
+        <v>42.74060106525461</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>54.26620580268934</v>
+        <v>54.26620580268933</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>70.2898648414984</v>
+        <v>70.28986484149839</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>5.849932388511381</v>
+        <v>5.84993238851138</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>2.449314829218714</v>
+        <v>2.449314829218713</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>46.75567429491505</v>
+        <v>46.75567429491504</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>51.4893577113731</v>
+        <v>51.48935771137309</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>51.64263386459298</v>
+        <v>51.64263386459297</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>51.14558538302334</v>
+        <v>51.14558538302333</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>5.078159115300595</v>
+        <v>5.078159115300594</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>41.85933645199995</v>
+        <v>41.85933645199994</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>40.12933811078203</v>
+        <v>40.12933811078202</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>44.5239383355089</v>
+        <v>44.52393833550889</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>6.584661482435374</v>
+        <v>6.584661482435373</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>4.876145248351329</v>
+        <v>4.876145248351328</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67727,7 +67727,7 @@
         <v>8423</v>
       </c>
       <c r="B8423">
-        <v>39.23781601117422</v>
+        <v>39.23781601117421</v>
       </c>
     </row>
     <row r="8424" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>4.911724072444817</v>
+        <v>4.911724072444816</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>6.591988258401908</v>
+        <v>6.591988258401907</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>48.96484378434427</v>
+        <v>48.96484378434426</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67911,7 +67911,7 @@
         <v>8446</v>
       </c>
       <c r="B8446">
-        <v>35.82646912115616</v>
+        <v>35.82646912115615</v>
       </c>
     </row>
     <row r="8447" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>51.05883635557958</v>
+        <v>51.05883635557957</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>6.677535694587155</v>
+        <v>6.677535694587154</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>3.358037268085561</v>
+        <v>3.35803726808556</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>0.8347220016048571</v>
+        <v>0.834722001604857</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>5.90529350771451</v>
+        <v>5.905293507714509</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>7.838126314789948</v>
+        <v>7.838126314789947</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68367,7 +68367,7 @@
         <v>8503</v>
       </c>
       <c r="B8503">
-        <v>27.48493468325762</v>
+        <v>27.48493468325761</v>
       </c>
     </row>
     <row r="8504" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>5.04703497099476</v>
+        <v>5.047034970994759</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>9.913069268512274</v>
+        <v>9.913069268512272</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>6.551544455066642</v>
+        <v>6.551544455066641</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68599,7 +68599,7 @@
         <v>8532</v>
       </c>
       <c r="B8532">
-        <v>1.781288703694044</v>
+        <v>1.781288703694043</v>
       </c>
     </row>
     <row r="8533" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>2.518684744069855</v>
+        <v>2.518684744069854</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68623,7 +68623,7 @@
         <v>8535</v>
       </c>
       <c r="B8535">
-        <v>3.249981976131123</v>
+        <v>3.249981976131122</v>
       </c>
     </row>
     <row r="8536" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>83.7975090133998</v>
+        <v>83.79750901339979</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>81.49983207029486</v>
+        <v>81.49983207029484</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>81.76476828924471</v>
+        <v>81.7647682892447</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>85.21890355090733</v>
+        <v>85.21890355090731</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>50.8319993716557</v>
+        <v>50.83199937165569</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>49.35697283407315</v>
+        <v>49.35697283407314</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>51.8820729031793</v>
+        <v>51.88207290317929</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>67.30933237831252</v>
+        <v>67.3093323783125</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69111,7 +69111,7 @@
         <v>8596</v>
       </c>
       <c r="B8596">
-        <v>81.73370275914661</v>
+        <v>81.7337027591466</v>
       </c>
     </row>
     <row r="8597" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>83.26558507822946</v>
+        <v>83.26558507822945</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>28.58104967495492</v>
+        <v>28.58104967495491</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>50.19544907568326</v>
+        <v>50.19544907568325</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69431,7 +69431,7 @@
         <v>8636</v>
       </c>
       <c r="B8636">
-        <v>87.60391566353336</v>
+        <v>87.60391566353334</v>
       </c>
     </row>
     <row r="8637" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>67.61998767929354</v>
+        <v>67.61998767929353</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>21.73493951892976</v>
+        <v>21.73493951892975</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>81.63698931638837</v>
+        <v>81.63698931638835</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>59.24489660746828</v>
+        <v>59.24489660746827</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>63.38950723621702</v>
+        <v>63.38950723621701</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>63.15299890801732</v>
+        <v>63.15299890801731</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>16.5501318526603</v>
+        <v>16.55013185266029</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>22.46706028060966</v>
+        <v>22.46706028060965</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>58.41667785221132</v>
+        <v>58.41667785221131</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>59.44301262960335</v>
+        <v>59.44301262960334</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>57.85368838694287</v>
+        <v>57.85368838694286</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>24.85142763695064</v>
+        <v>24.85142763695063</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>87.07140558628569</v>
+        <v>87.07140558628568</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70319,7 +70319,7 @@
         <v>8747</v>
       </c>
       <c r="B8747">
-        <v>45.10011599751711</v>
+        <v>45.1001159975171</v>
       </c>
     </row>
     <row r="8748" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>88.19738451682258</v>
+        <v>88.19738451682257</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>93.34898723441172</v>
+        <v>93.34898723441169</v>
       </c>
     </row>
   </sheetData>
